--- a/trunk/TP 1/Archivos/GraficoDeltaVvsV.xlsx
+++ b/trunk/TP 1/Archivos/GraficoDeltaVvsV.xlsx
@@ -203,13 +203,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -247,11 +247,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.4987137246142102E-2"/>
-                  <c:y val="-8.6258130777131126E-2"/>
+                  <c:x val="-1.221376494604841E-2"/>
+                  <c:y val="-5.5970684075266841E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -291,7 +291,7 @@
             <c:numRef>
               <c:f>Hoja1!$C$2:$J$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>24.898</c:v>
@@ -321,31 +321,72 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="66923904"/>
-        <c:axId val="66922368"/>
+        <c:axId val="77902976"/>
+        <c:axId val="77904512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66923904"/>
+        <c:axId val="77902976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Desvío de valores de la matriz </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66922368"/>
+        <c:crossAx val="77904512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66922368"/>
+        <c:axId val="77904512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Valor</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> representativo de la matriz</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66923904"/>
+        <c:crossAx val="77902976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -358,7 +399,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -368,6 +409,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-ES"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -375,6 +417,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Delta V vs. V</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
@@ -387,11 +432,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.22589125058789616"/>
-                  <c:y val="4.7158052611844574E-2"/>
+                  <c:x val="0.22589125058789622"/>
+                  <c:y val="4.7158052611844567E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -431,7 +476,7 @@
             <c:numRef>
               <c:f>Hoja1!$C$2:$J$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>24.898</c:v>
@@ -461,31 +506,67 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="62155392"/>
-        <c:axId val="62153856"/>
+        <c:axId val="77912704"/>
+        <c:axId val="78250368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62155392"/>
+        <c:axId val="77912704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Desvío de valores de la matriz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62153856"/>
+        <c:crossAx val="78250368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62153856"/>
+        <c:axId val="78250368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Valor representativo de l amatriz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62155392"/>
+        <c:crossAx val="77912704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -498,147 +579,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-ES"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.22886352798133244"/>
-                  <c:y val="4.4669213096330436E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Hoja1!$C$3:$J$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.9922000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.7117000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.3686000000000007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.247</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.143000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.182</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.963999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23.742000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hoja1!$C$2:$J$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>24.898</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.259</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39.378</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>54.698</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80.233000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>101.84</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>127.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>152.78</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="99517952"/>
-        <c:axId val="99516416"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="99517952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99516416"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="99516416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99517952"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -649,15 +590,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -678,16 +619,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -701,36 +642,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>752474</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="3 Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1035,7 +946,7 @@
   <dimension ref="B1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1048,63 +959,64 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>24.898</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>30.259</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <v>39.378</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>54.698</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>80.233000000000004</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="5">
         <v>101.84</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="5">
         <v>127.6</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="6">
         <v>152.78</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>5.9922000000000004</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>5.7117000000000004</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>8.3686000000000007</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>12.247</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>14.143000000000001</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>15.182</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>16.963999999999999</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>23.742000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
